--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H2">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I2">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J2">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>267.8048832284539</v>
+        <v>71.23553112006256</v>
       </c>
       <c r="R2">
-        <v>2410.243949056086</v>
+        <v>641.119780080563</v>
       </c>
       <c r="S2">
-        <v>0.003839412127530111</v>
+        <v>0.001052239061769869</v>
       </c>
       <c r="T2">
-        <v>0.003839412127530111</v>
+        <v>0.001052239061769869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H3">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I3">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J3">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>8015.682247674625</v>
+        <v>4568.160319263948</v>
       </c>
       <c r="R3">
-        <v>72141.14022907162</v>
+        <v>41113.44287337553</v>
       </c>
       <c r="S3">
-        <v>0.1149176492270919</v>
+        <v>0.06747751652549788</v>
       </c>
       <c r="T3">
-        <v>0.1149176492270919</v>
+        <v>0.06747751652549788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H4">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I4">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J4">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>1100.657570899363</v>
+        <v>559.3699356539496</v>
       </c>
       <c r="R4">
-        <v>9905.918138094265</v>
+        <v>5034.329420885547</v>
       </c>
       <c r="S4">
-        <v>0.01577968995570523</v>
+        <v>0.008262602763258051</v>
       </c>
       <c r="T4">
-        <v>0.01577968995570523</v>
+        <v>0.00826260276325805</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.935331</v>
+        <v>18.76993966666667</v>
       </c>
       <c r="H5">
-        <v>98.805993</v>
+        <v>56.309819</v>
       </c>
       <c r="I5">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="J5">
-        <v>0.1836164637112342</v>
+        <v>0.1007685501185251</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>3423.385198521621</v>
+        <v>1623.164180920176</v>
       </c>
       <c r="R5">
-        <v>30810.46678669459</v>
+        <v>14608.47762828158</v>
       </c>
       <c r="S5">
-        <v>0.04907971240090694</v>
+        <v>0.02397619176799932</v>
       </c>
       <c r="T5">
-        <v>0.04907971240090695</v>
+        <v>0.02397619176799932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>286.686402</v>
       </c>
       <c r="I6">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J6">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>777.0380730933559</v>
+        <v>362.6766783137728</v>
       </c>
       <c r="R6">
-        <v>6993.342657840203</v>
+        <v>3264.090104823954</v>
       </c>
       <c r="S6">
-        <v>0.01114008589172089</v>
+        <v>0.005357194109657135</v>
       </c>
       <c r="T6">
-        <v>0.01114008589172089</v>
+        <v>0.005357194109657135</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>286.686402</v>
       </c>
       <c r="I7">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J7">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
         <v>23257.56802182142</v>
@@ -883,10 +883,10 @@
         <v>209318.1121963928</v>
       </c>
       <c r="S7">
-        <v>0.3334345051642066</v>
+        <v>0.3435437508437121</v>
       </c>
       <c r="T7">
-        <v>0.3334345051642066</v>
+        <v>0.3435437508437121</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>286.686402</v>
       </c>
       <c r="I8">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J8">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>3193.567001904411</v>
+        <v>2847.882608885714</v>
       </c>
       <c r="R8">
-        <v>28742.1030171397</v>
+        <v>25630.94347997142</v>
       </c>
       <c r="S8">
-        <v>0.04578490029523483</v>
+        <v>0.04206683486859918</v>
       </c>
       <c r="T8">
-        <v>0.04578490029523483</v>
+        <v>0.04206683486859917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>286.686402</v>
       </c>
       <c r="I9">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="J9">
-        <v>0.5327646808765668</v>
+        <v>0.5130361557055731</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>9932.980332723535</v>
+        <v>8263.906848702218</v>
       </c>
       <c r="R9">
-        <v>89396.82299451182</v>
+        <v>74375.16163831996</v>
       </c>
       <c r="S9">
-        <v>0.1424051895254045</v>
+        <v>0.1220683758836047</v>
       </c>
       <c r="T9">
-        <v>0.1424051895254045</v>
+        <v>0.1220683758836047</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H10">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I10">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J10">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>112.2404940816047</v>
+        <v>76.13764189997701</v>
       </c>
       <c r="R10">
-        <v>1010.164446734442</v>
+        <v>685.2387770997931</v>
       </c>
       <c r="S10">
-        <v>0.001609147335111393</v>
+        <v>0.001124649449769298</v>
       </c>
       <c r="T10">
-        <v>0.001609147335111394</v>
+        <v>0.001124649449769298</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H11">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I11">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J11">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>3359.476216543302</v>
+        <v>4882.520689620397</v>
       </c>
       <c r="R11">
-        <v>30235.28594888972</v>
+        <v>43942.68620658357</v>
       </c>
       <c r="S11">
-        <v>0.04816347473747217</v>
+        <v>0.07212101754192166</v>
       </c>
       <c r="T11">
-        <v>0.04816347473747218</v>
+        <v>0.07212101754192166</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H12">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I12">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J12">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>461.2998392080008</v>
+        <v>597.863273857713</v>
       </c>
       <c r="R12">
-        <v>4151.698552872008</v>
+        <v>5380.769464719417</v>
       </c>
       <c r="S12">
-        <v>0.006613472374855893</v>
+        <v>0.00883119814591409</v>
       </c>
       <c r="T12">
-        <v>0.006613472374855895</v>
+        <v>0.00883119814591409</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.80362366666667</v>
+        <v>20.061603</v>
       </c>
       <c r="H13">
-        <v>41.410871</v>
+        <v>60.184809</v>
       </c>
       <c r="I13">
-        <v>0.07695603739564764</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="J13">
-        <v>0.07695603739564766</v>
+        <v>0.1077029912330274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>1434.785062473774</v>
+        <v>1734.863083191978</v>
       </c>
       <c r="R13">
-        <v>12913.06556226396</v>
+        <v>15613.7677487278</v>
       </c>
       <c r="S13">
-        <v>0.02056994294820819</v>
+        <v>0.02562612609542239</v>
       </c>
       <c r="T13">
-        <v>0.02056994294820819</v>
+        <v>0.02562612609542239</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H14">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I14">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J14">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>301.4180249850853</v>
+        <v>196.8724080047861</v>
       </c>
       <c r="R14">
-        <v>2712.762224865768</v>
+        <v>1771.851672043075</v>
       </c>
       <c r="S14">
-        <v>0.004321310375795836</v>
+        <v>0.002908054935930532</v>
       </c>
       <c r="T14">
-        <v>0.004321310375795836</v>
+        <v>0.002908054935930532</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H15">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I15">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J15">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>9021.758986900319</v>
+        <v>12624.94583903112</v>
       </c>
       <c r="R15">
-        <v>81195.83088210286</v>
+        <v>113624.5125512801</v>
       </c>
       <c r="S15">
-        <v>0.1293413714058765</v>
+        <v>0.1864864479239647</v>
       </c>
       <c r="T15">
-        <v>0.1293413714058765</v>
+        <v>0.1864864479239647</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H16">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I16">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J16">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>1238.805010595559</v>
+        <v>1545.921037804408</v>
       </c>
       <c r="R16">
-        <v>11149.24509536003</v>
+        <v>13913.28934023967</v>
       </c>
       <c r="S16">
-        <v>0.01776025486909533</v>
+        <v>0.02283521266442105</v>
       </c>
       <c r="T16">
-        <v>0.01776025486909533</v>
+        <v>0.02283521266442104</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.06916133333333</v>
+        <v>51.87415833333333</v>
       </c>
       <c r="H17">
-        <v>111.207484</v>
+        <v>155.622475</v>
       </c>
       <c r="I17">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="J17">
-        <v>0.2066628180165514</v>
+        <v>0.2784923029428744</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>3853.066429790651</v>
+        <v>4485.910834949505</v>
       </c>
       <c r="R17">
-        <v>34677.59786811585</v>
+        <v>40373.19751454556</v>
       </c>
       <c r="S17">
-        <v>0.05523988136578376</v>
+        <v>0.06626258741855802</v>
       </c>
       <c r="T17">
-        <v>0.05523988136578376</v>
+        <v>0.06626258741855802</v>
       </c>
     </row>
   </sheetData>
